--- a/MRI_Experiment/experimental_data/Batch_II.xlsx
+++ b/MRI_Experiment/experimental_data/Batch_II.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="19875" windowHeight="7650" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19875" windowHeight="7650" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sand-1-W" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="79">
   <si>
     <t>batch number</t>
   </si>
@@ -256,13 +256,17 @@
   <si>
     <t>gravi</t>
   </si>
+  <si>
+    <t>gravel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -300,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -311,6 +315,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +620,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,6 +709,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4575446700742853</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>9.3109999999999218</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -756,13 +768,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.27813337006596556</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.26388263923963451</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.40539181110944689</v>
+        <f>G17*$B$13</f>
+        <v>0.38462073434886473</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -782,13 +794,13 @@
         <f>$D$17-D18</f>
         <v>4.1910000000000309</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G36" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.2717189341414511</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G50" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25746820331512005</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H50" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.3960424842161378</v>
+        <f t="shared" ref="H18:H50" si="1">G18*$B$13</f>
+        <v>0.37527140745555565</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -808,13 +820,13 @@
         <f t="shared" ref="F19:F36" si="2">$D$17-D19</f>
         <v>8.3899999999998727</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26529225400615281</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25104152317982176</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.38667531083866147</v>
+        <v>0.36590423407807937</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -837,13 +849,13 @@
         <f t="shared" si="2"/>
         <v>13.154999999999973</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25799929595787985</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2437485651315488</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.37604549870632586</v>
+        <v>0.35527442194574377</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -854,13 +866,13 @@
         <f t="shared" si="2"/>
         <v>0.50499999999988177</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27736045426022016</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26310972343388911</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.40426525179636646</v>
+        <v>0.38349417503578437</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -880,13 +892,13 @@
         <f t="shared" si="2"/>
         <v>23.142000000000053</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24271392932029306</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22846319849396202</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.35376639403357996</v>
+        <v>0.3329953172729978</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -906,13 +918,13 @@
         <f t="shared" si="2"/>
         <v>33.543000000000006</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22679492477462987</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21254419394829882</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.33056373380516024</v>
+        <v>0.30979265704457815</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -932,13 +944,13 @@
         <f t="shared" si="2"/>
         <v>42.266999999999939</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2134426129145813</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19919188208825025</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.31110214282037679</v>
+        <v>0.29033106605979464</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -955,13 +967,13 @@
         <f t="shared" si="2"/>
         <v>45.958999999999946</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2077919096377244</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19354117881139332</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.30286599037702272</v>
+        <v>0.28209491361644057</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -972,13 +984,13 @@
         <f t="shared" si="2"/>
         <v>2.19399999999996</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27477539525842931</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26052466443209826</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.40049741282647872</v>
+        <v>0.37972633606589656</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -998,13 +1010,13 @@
         <f t="shared" si="2"/>
         <v>26.957999999999856</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23687344077628308</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22262270994995204</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.34525362108562829</v>
+        <v>0.32448254432504614</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1024,13 +1036,13 @@
         <f t="shared" si="2"/>
         <v>55.222999999999956</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19361311354974972</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17936238272341867</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.28219976171092509</v>
+        <v>0.26142868495034299</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1050,13 +1062,13 @@
         <f t="shared" si="2"/>
         <v>69.88799999999992</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17116794465616728</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15691721382983623</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.24948492542116685</v>
+        <v>0.22871384866058472</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1073,13 +1085,13 @@
         <f t="shared" si="2"/>
         <v>80.171999999999912</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15542801169322132</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14117728086689027</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0.22654327002369842</v>
+        <v>0.2057721932631163</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1090,13 +1102,13 @@
         <f t="shared" si="2"/>
         <v>7.9680000000000746</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26593813612501316</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25168740529868211</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.38761671287850269</v>
+        <v>0.36684563611792054</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1116,13 +1128,13 @@
         <f t="shared" si="2"/>
         <v>19.417999999999893</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24841360944028656</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23416287861395552</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0.36207393241360486</v>
+        <v>0.34130285565302271</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1142,13 +1154,13 @@
         <f t="shared" si="2"/>
         <v>42.791999999999916</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21263908658187552</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19838835575554448</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>0.30993096729687714</v>
+        <v>0.28915989053629504</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1171,13 +1183,13 @@
         <f t="shared" si="2"/>
         <v>59.843999999999937</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18654055129559055</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1722898204692595</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0.27189118629360681</v>
+        <v>0.25112010953302472</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1188,13 +1200,13 @@
         <f t="shared" si="2"/>
         <v>12.299999999999955</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25930789598542936</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24505716515909831</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>0.37795284170173971</v>
+        <v>0.35718176494115761</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1214,13 +1226,13 @@
         <f t="shared" si="2"/>
         <v>41.289999999999964</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2149379371565881</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20068720633025705</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>0.31328164469934666</v>
+        <v>0.29251056793876457</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1238,13 +1250,13 @@
         <f t="shared" ref="F37" si="3">$D$17-D37</f>
         <v>41.289999999999964</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" ref="G37" si="4">(D37-$B$7)/($B$7-$B$5)</f>
-        <v>0.2149379371565881</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20068720633025705</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.31328164469934666</v>
+        <v>0.29251056793876457</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1253,16 +1265,16 @@
         <v>1040.3</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38:F50" si="5">$D$17-D38</f>
+        <f t="shared" ref="F38:F50" si="4">$D$17-D38</f>
         <v>12.240000000000009</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" ref="G38:G50" si="6">(D38-$B$7)/($B$7-$B$5)</f>
-        <v>0.25939972756630991</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24514899673997889</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>0.37808669033299669</v>
+        <v>0.35731561357241459</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1279,16 +1291,16 @@
         <v>972.44500000000005</v>
       </c>
       <c r="F39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>80.094999999999914</v>
       </c>
-      <c r="G39" s="5">
-        <f t="shared" si="6"/>
-        <v>0.15554586222201819</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14129513139568711</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0.22671504243381171</v>
+        <v>0.20594396567322956</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1308,16 +1320,16 @@
         <v>22</v>
       </c>
       <c r="F40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100.34899999999993</v>
       </c>
-      <c r="G40" s="5">
-        <f t="shared" si="6"/>
-        <v>0.12454658156940171</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11029585074307066</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>0.18153220614245369</v>
+        <v>0.16076112938187154</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1325,16 +1337,16 @@
         <v>1040.42</v>
       </c>
       <c r="F41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12.119999999999891</v>
       </c>
-      <c r="G41" s="5">
-        <f t="shared" si="6"/>
-        <v>0.25958339072807146</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24533265990174039</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>0.37835438759551115</v>
+        <v>0.35758331083492906</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1351,16 +1363,16 @@
         <v>1025.9860000000001</v>
       </c>
       <c r="F42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26.55399999999986</v>
       </c>
-      <c r="G42" s="5">
-        <f t="shared" si="6"/>
-        <v>0.23749177342087954</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22324104259454849</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>0.34615486853609279</v>
+        <v>0.32538379177551069</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1380,16 +1392,16 @@
         <v>22</v>
       </c>
       <c r="F43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43.015999999999963</v>
       </c>
-      <c r="G43" s="5">
-        <f t="shared" si="6"/>
-        <v>0.21229624867992097</v>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19804551785358993</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="1"/>
-        <v>0.30943126574018381</v>
+        <v>0.28866018897960172</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1397,16 +1409,16 @@
         <v>1036.712</v>
       </c>
       <c r="F44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.827999999999975</v>
       </c>
-      <c r="G44" s="5">
-        <f t="shared" si="6"/>
-        <v>0.25390819902964623</v>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23965746820331518</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="1"/>
-        <v>0.37008254218382169</v>
+        <v>0.34931146542323954</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1423,16 +1435,16 @@
         <v>1012.987</v>
       </c>
       <c r="F45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39.552999999999997</v>
       </c>
-      <c r="G45" s="5">
-        <f t="shared" si="6"/>
-        <v>0.21759646142308331</v>
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20334573059675223</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="1"/>
-        <v>0.31715656257423991</v>
+        <v>0.29638548581365776</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1446,16 +1458,16 @@
         <v>22</v>
       </c>
       <c r="F46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43.997999999999934</v>
       </c>
-      <c r="G46" s="5">
-        <f t="shared" si="6"/>
-        <v>0.21079327180617413</v>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19654254097984308</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="1"/>
-        <v>0.30724060980860923</v>
+        <v>0.28646953304802708</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1463,16 +1475,16 @@
         <v>1036.634</v>
       </c>
       <c r="F47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.905999999999949</v>
       </c>
-      <c r="G47" s="5">
-        <f t="shared" si="6"/>
-        <v>0.25378881797450142</v>
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23953808714817035</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="1"/>
-        <v>0.36990853896318748</v>
+        <v>0.34913746220260539</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1492,16 +1504,16 @@
         <v>59</v>
       </c>
       <c r="F48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>81.769000000000005</v>
       </c>
-      <c r="G48" s="5">
-        <f t="shared" si="6"/>
-        <v>0.15298376111544748</v>
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13873303028911643</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="1"/>
-        <v>0.22298066562173818</v>
+        <v>0.20220958886115606</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1509,16 +1521,16 @@
         <v>1032.6310000000001</v>
       </c>
       <c r="F49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19.908999999999878</v>
       </c>
-      <c r="G49" s="5">
-        <f t="shared" si="6"/>
-        <v>0.24766212100341314</v>
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2334113901770821</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="1"/>
-        <v>0.36097860444781754</v>
+        <v>0.34020752768723539</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1538,16 +1550,16 @@
         <v>63</v>
       </c>
       <c r="F50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31.663999999999987</v>
       </c>
-      <c r="G50" s="5">
-        <f t="shared" si="6"/>
-        <v>0.22967078378254274</v>
+      <c r="G50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21542005295621167</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="1"/>
-        <v>0.33475542677402875</v>
+        <v>0.3139843500134466</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1656,7 +1668,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H15:H17"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,6 +1757,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4543189180609886</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>11.1400000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1797,13 +1816,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.27673820298546148</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25955591339138906</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.40246560395195852</v>
+        <f>G17*$B$13</f>
+        <v>0.37747707513969658</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1823,13 +1842,13 @@
         <f>$D$17-D18</f>
         <v>6.1520000000000437</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G39" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.26724938381286423</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G19" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25006709421879181</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H42" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.38866583471919053</v>
+        <f t="shared" ref="H18:H42" si="1">G18*$B$13</f>
+        <v>0.36367730590692859</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1852,13 +1871,13 @@
         <f t="shared" ref="F19:F39" si="2">$D$17-D19</f>
         <v>12.142000000000053</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25801043276542318</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24082814317135076</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.37522945342785768</v>
+        <v>0.35024092461559569</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1874,7 +1893,7 @@
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H18:H42" si="3">(D20-$B$7)/$D$11</f>
         <v>0.37810963933404679</v>
       </c>
     </row>
@@ -1898,13 +1917,13 @@
         <f t="shared" si="2"/>
         <v>14.22199999999998</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25480224943008484</v>
+      <c r="G21" s="8">
+        <f t="shared" ref="G21" si="4">(D21-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.23761995983601245</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.37056373171066714</v>
+        <v>0.34557520289840515</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1915,13 +1934,13 @@
         <f t="shared" si="2"/>
         <v>4.7000000000025466E-2</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27666571038124943</v>
+      <c r="G22" s="8">
+        <f t="shared" ref="G22:G42" si="5">(D22-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25948342078717701</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.40236017658623352</v>
+        <v>0.37737164777397147</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1944,13 +1963,13 @@
         <f t="shared" si="2"/>
         <v>23.852000000000089</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23994897754580138</v>
+      <c r="G23" s="8">
+        <f t="shared" si="5"/>
+        <v>0.22276668795172896</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.34896233741425031</v>
+        <v>0.32397380860198832</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1970,13 +1989,13 @@
         <f t="shared" si="2"/>
         <v>29.522000000000048</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23120359316533559</v>
+      <c r="G24" s="8">
+        <f t="shared" si="5"/>
+        <v>0.21402130357126317</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.33624375946402379</v>
+        <v>0.31125523065176186</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1996,13 +2015,13 @@
         <f t="shared" si="2"/>
         <v>35.759000000000015</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22158367034682319</v>
+      <c r="G25" s="8">
+        <f t="shared" si="5"/>
+        <v>0.20440138075275077</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.32225332371877463</v>
+        <v>0.2972647949065127</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2019,13 +2038,13 @@
         <f t="shared" si="2"/>
         <v>37.710000000000036</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21857445607410905</v>
+      <c r="G26" s="8">
+        <f t="shared" si="5"/>
+        <v>0.20139216648003663</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.31787696647346736</v>
+        <v>0.29288843766120537</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2036,13 +2055,13 @@
         <f t="shared" si="2"/>
         <v>2.9770000000000891</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27214649058675816</v>
+      <c r="G27" s="8">
+        <f t="shared" si="5"/>
+        <v>0.25496420099268574</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.39578778974422912</v>
+        <v>0.37079926093196713</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2062,13 +2081,13 @@
         <f t="shared" si="2"/>
         <v>17.236000000000104</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2501534683855125</v>
+      <c r="G28" s="8">
+        <f t="shared" si="5"/>
+        <v>0.23297117879144008</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.36380292149162224</v>
+        <v>0.33881439267936025</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2091,13 +2110,13 @@
         <f t="shared" si="2"/>
         <v>34.095000000000027</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22415021701509391</v>
+      <c r="G29" s="8">
+        <f t="shared" si="5"/>
+        <v>0.20696792742102152</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.32598590109252717</v>
+        <v>0.30099737228026524</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2112,13 +2131,13 @@
         <f t="shared" si="2"/>
         <v>34.87600000000009</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22294560586850762</v>
+      <c r="G30" s="8">
+        <f t="shared" si="5"/>
+        <v>0.2057633162744352</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0.32423401231313959</v>
+        <v>0.2992454835008776</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2138,13 +2157,13 @@
         <f t="shared" si="2"/>
         <v>40.571000000000026</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21416166159218442</v>
+      <c r="G31" s="8">
+        <f t="shared" si="5"/>
+        <v>0.196979371998112</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.31145935597688917</v>
+        <v>0.28647082716462724</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2161,13 +2180,13 @@
         <f t="shared" si="2"/>
         <v>45.331999999999994</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20681831502509487</v>
+      <c r="G32" s="8">
+        <f t="shared" si="5"/>
+        <v>0.18963602543102245</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0.30077978814249268</v>
+        <v>0.27579125933023069</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2178,13 +2197,13 @@
         <f t="shared" si="2"/>
         <v>3.0340000000001055</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27205857402420319</v>
+      <c r="G33" s="8">
+        <f t="shared" si="5"/>
+        <v>0.25487628443013077</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>0.39565993102409452</v>
+        <v>0.37067140221183259</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2204,13 +2223,13 @@
         <f t="shared" si="2"/>
         <v>12.281999999999925</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25779449734862175</v>
+      <c r="G34" s="8">
+        <f t="shared" si="5"/>
+        <v>0.24061220775454933</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0.37491541446612398</v>
+        <v>0.34992688565386199</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2230,13 +2249,13 @@
         <f t="shared" si="2"/>
         <v>25.190000000000055</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23788525191951163</v>
+      <c r="G35" s="8">
+        <f t="shared" si="5"/>
+        <v>0.22070296232543921</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>0.34596102219424985</v>
+        <v>0.32097249338198786</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2259,13 +2278,13 @@
         <f t="shared" si="2"/>
         <v>35.442999999999984</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22207106743046118</v>
+      <c r="G36" s="8">
+        <f t="shared" si="5"/>
+        <v>0.20488877783638876</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>0.32296215451811716</v>
+        <v>0.29797362570585517</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2276,13 +2295,13 @@
         <f t="shared" si="2"/>
         <v>5.02800000000002</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26898303673061447</v>
+      <c r="G37" s="8">
+        <f t="shared" si="5"/>
+        <v>0.25180074713654205</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.39118711895482633</v>
+        <v>0.3661985901425644</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2302,13 +2321,13 @@
         <f t="shared" si="2"/>
         <v>22.163000000000011</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24255408410992971</v>
+      <c r="G38" s="8">
+        <f t="shared" si="5"/>
+        <v>0.22537179451585729</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>0.35275099317402697</v>
+        <v>0.32776246436176498</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2326,13 +2345,13 @@
         <f t="shared" si="2"/>
         <v>22.163000000000011</v>
       </c>
-      <c r="G39" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24255408410992971</v>
+      <c r="G39" s="8">
+        <f t="shared" si="5"/>
+        <v>0.22537179451585729</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0.35275099317402697</v>
+        <v>0.32776246436176498</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2344,13 +2363,13 @@
         <f>$D$17-D40</f>
         <v>5.3969999999999345</v>
       </c>
-      <c r="G40" s="5">
-        <f>(D40-$B$7)/($B$7-$B$5)</f>
-        <v>0.26841389266775889</v>
+      <c r="G40" s="8">
+        <f t="shared" si="5"/>
+        <v>0.25123160307368647</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>0.39035940197711338</v>
+        <v>0.36537087316485145</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2373,13 +2392,13 @@
         <f>$D$17-D41</f>
         <v>45.423000000000002</v>
       </c>
-      <c r="G41" s="5">
-        <f>(D41-$B$7)/($B$7-$B$5)</f>
-        <v>0.2066779570041738</v>
+      <c r="G41" s="8">
+        <f t="shared" si="5"/>
+        <v>0.18949566741010138</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>0.30057566281736553</v>
+        <v>0.27558713400510354</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2396,13 +2415,13 @@
         <f>$D$17-D42</f>
         <v>45.802999999999997</v>
       </c>
-      <c r="G42" s="5">
-        <f>(D42-$B$7)/($B$7-$B$5)</f>
-        <v>0.20609184658714083</v>
+      <c r="G42" s="8">
+        <f t="shared" si="5"/>
+        <v>0.18890955699306841</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>0.29972327134980187</v>
+        <v>0.27473474253753993</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2507,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H17" sqref="H15:H17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,6 +2616,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4673663225995248</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>10.44399999999996</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2649,13 +2675,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.27467026365373898</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25896502411274586</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.40304189470502888</v>
+        <f>G17*$B$13</f>
+        <v>0.37999655511421715</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2675,13 +2701,13 @@
         <f>$D$17-D18</f>
         <v>6.4639999999999418</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G37" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.26494997751883098</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G49" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.24924473797783789</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H49" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.3887786741846338</v>
+        <f t="shared" ref="H18:H49" si="1">G18*$B$13</f>
+        <v>0.36573333459382212</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2701,13 +2727,13 @@
         <f t="shared" ref="F19:F37" si="2">$D$17-D19</f>
         <v>10.755000000000109</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25849735564307413</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24279211610208104</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.37931031415167926</v>
+        <v>0.35626497456086753</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2730,13 +2756,13 @@
         <f t="shared" si="2"/>
         <v>14.823000000000093</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25238007160891485</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23667483206792173</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.37033401757417811</v>
+        <v>0.34728867798336638</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2747,13 +2773,13 @@
         <f t="shared" si="2"/>
         <v>8.3900000000001</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26205374127256947</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24634850173157635</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.38452883465457754</v>
+        <v>0.36148349506376587</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2773,13 +2799,13 @@
         <f t="shared" si="2"/>
         <v>25.027000000000044</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23703573378085149</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22133049423985837</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.34781825300268798</v>
+        <v>0.32477291341187631</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2799,13 +2825,13 @@
         <f t="shared" si="2"/>
         <v>33.941000000000031</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22363124265978554</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20792600311879242</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.32814895416005146</v>
+        <v>0.30510361456923973</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2825,13 +2851,13 @@
         <f t="shared" si="2"/>
         <v>41.074000000000069</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21290494300008572</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1971997034590926</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.31240954327329717</v>
+        <v>0.2893642036824855</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2848,13 +2874,13 @@
         <f t="shared" si="2"/>
         <v>43.864000000000033</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20870946058727735</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19300422104628426</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.30625323367368362</v>
+        <v>0.28320789408287195</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2865,13 +2891,13 @@
         <f t="shared" si="2"/>
         <v>26.396999999999935</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23497558650287764</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21927034696188452</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.3447952622673941</v>
+        <v>0.32174992267658237</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2891,13 +2917,13 @@
         <f t="shared" si="2"/>
         <v>44.066000000000031</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20840570164556149</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19270046210456837</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.30580750803242129</v>
+        <v>0.28276216844160956</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2917,13 +2943,13 @@
         <f t="shared" si="2"/>
         <v>66.456000000000017</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1747365793434898</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15903133980249667</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.25640257185487669</v>
+        <v>0.23335723226406499</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2943,13 +2969,13 @@
         <f t="shared" si="2"/>
         <v>80.116999999999962</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15419375309210076</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13848851355110767</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.226258720442575</v>
+        <v>0.20321338085176333</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2966,13 +2992,13 @@
         <f t="shared" si="2"/>
         <v>89.676000000000045</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.13981933861753595</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12411409907654283</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0.20516618873551143</v>
+        <v>0.18212084914469973</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2983,13 +3009,13 @@
         <f t="shared" si="2"/>
         <v>58.076999999999998</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18733656039614988</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17163132085515678</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.27489135971694223</v>
+        <v>0.25184602012613055</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3009,13 +3035,13 @@
         <f t="shared" si="2"/>
         <v>66.586000000000013</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17454109091565284</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15883585137465972</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0.2561157187194108</v>
+        <v>0.23307037912859913</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3035,13 +3061,13 @@
         <f t="shared" si="2"/>
         <v>86.52800000000002</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.14455316608546459</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1288479265444715</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>0.21211244773894652</v>
+        <v>0.18906710814813485</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3064,13 +3090,13 @@
         <f t="shared" si="2"/>
         <v>101.58799999999997</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.12190658359912256</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10620134405812945</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0.178881615276516</v>
+        <v>0.1558362756857043</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3081,13 +3107,13 @@
         <f t="shared" si="2"/>
         <v>79.692999999999984</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15483134611827665</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13912610657728353</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>0.22719430297670978</v>
+        <v>0.20414896338589808</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3107,13 +3133,13 @@
         <f t="shared" si="2"/>
         <v>105.00400000000002</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1167697492184223</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10106450967742918</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>0.17134399750150506</v>
+        <v>0.14829865791069335</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3131,13 +3157,13 @@
         <f t="shared" si="2"/>
         <v>105.00400000000002</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1167697492184223</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10106450967742918</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.17134399750150506</v>
+        <v>0.14829865791069335</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3149,13 +3175,13 @@
         <f t="shared" ref="F38:F49" si="3">$D$17-D38</f>
         <v>94.461000000000013</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" ref="G38:G49" si="4">(D38-$B$7)/($B$7-$B$5)</f>
-        <v>0.13262386071599899</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11691862117500589</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>0.19460778678778703</v>
+        <v>0.17156244719697533</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3175,13 +3201,13 @@
         <f t="shared" si="3"/>
         <v>138.41899999999998</v>
       </c>
-      <c r="G39" s="5">
-        <f t="shared" si="4"/>
-        <v>6.6521704478640004E-2</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>5.0816464937646889E-2</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>9.7611708873874325E-2</v>
+        <v>7.4566369283062608E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3204,13 +3230,13 @@
         <f t="shared" si="3"/>
         <v>149.90300000000002</v>
       </c>
-      <c r="G40" s="5">
-        <f t="shared" si="4"/>
-        <v>4.9252557514951174E-2</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>3.354731797395806E-2</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>7.2271544199335486E-2</v>
+        <v>4.9226204608523783E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3221,13 +3247,13 @@
         <f t="shared" si="3"/>
         <v>122.221</v>
       </c>
-      <c r="G41" s="5">
-        <f t="shared" si="4"/>
-        <v>9.0879562587124027E-2</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>7.5174323046130906E-2</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>0.13335360955292153</v>
+        <v>0.11030826996210982</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3247,13 +3273,13 @@
         <f t="shared" si="3"/>
         <v>131.62599999999998</v>
       </c>
-      <c r="G42" s="5">
-        <f t="shared" si="4"/>
-        <v>7.6736726711689282E-2</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>6.1031487170696175E-2</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>0.11260088848325624</v>
+        <v>8.955554889244452E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3276,13 +3302,13 @@
         <f t="shared" si="3"/>
         <v>140.43799999999999</v>
       </c>
-      <c r="G43" s="5">
-        <f t="shared" si="4"/>
-        <v>6.3485618818618431E-2</v>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>4.7780379277625323E-2</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="1"/>
-        <v>9.3156659023831315E-2</v>
+        <v>7.0111319433019612E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3293,13 +3319,13 @@
         <f t="shared" si="3"/>
         <v>130.19600000000003</v>
       </c>
-      <c r="G44" s="5">
-        <f t="shared" si="4"/>
-        <v>7.8887099417895665E-2</v>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>6.3181859876902557E-2</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="1"/>
-        <v>0.11575627297338068</v>
+        <v>9.2710933382568972E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3319,13 +3345,13 @@
         <f t="shared" si="3"/>
         <v>140.35900000000004</v>
       </c>
-      <c r="G45" s="5">
-        <f t="shared" si="4"/>
-        <v>6.3604415632457736E-2</v>
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>4.7899176091464622E-2</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="1"/>
-        <v>9.3330977467691228E-2</v>
+        <v>7.0285637876879525E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3342,13 +3368,13 @@
         <f t="shared" si="3"/>
         <v>141.88400000000001</v>
       </c>
-      <c r="G46" s="5">
-        <f t="shared" si="4"/>
-        <v>6.1311185998216618E-2</v>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>4.5605946457223503E-2</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="1"/>
-        <v>8.9965969532418588E-2</v>
+        <v>6.6920629941606885E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3359,13 +3385,13 @@
         <f t="shared" si="3"/>
         <v>135.77300000000002</v>
       </c>
-      <c r="G47" s="5">
-        <f t="shared" si="4"/>
-        <v>7.0500645863690495E-2</v>
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>5.4795406322697381E-2</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="1"/>
-        <v>0.10345027346189491</v>
+        <v>8.0404933871083203E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3388,13 +3414,13 @@
         <f t="shared" si="3"/>
         <v>152.97900000000004</v>
       </c>
-      <c r="G48" s="5">
-        <f t="shared" si="4"/>
-        <v>4.4627000560901443E-2</v>
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8921761019908333E-2</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="1"/>
-        <v>6.5484157701696882E-2</v>
+        <v>4.2438818110885172E-2</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -3411,13 +3437,13 @@
         <f t="shared" si="3"/>
         <v>153.04899999999998</v>
       </c>
-      <c r="G49" s="5">
-        <f t="shared" si="4"/>
-        <v>4.4521737561297028E-2</v>
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8816498020303918E-2</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="1"/>
-        <v>6.5329698321061558E-2</v>
+        <v>4.2284358730249848E-2</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -3519,8 +3545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,6 +3635,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4544593747147616</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>12.264000000000124</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3661,13 +3694,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.28376543228504975</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.26526027033470451</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.41272529320697754</v>
+        <f>G17*$B$13</f>
+        <v>0.38581028692768293</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3687,13 +3720,13 @@
         <f>$D$17-D18</f>
         <v>4.4530000000002019</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G38" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.27704629610069798</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G42" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25854113415035268</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H42" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.4029525825936619</v>
+        <f t="shared" ref="H18:H42" si="1">G18*$B$13</f>
+        <v>0.37603757631436724</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3716,13 +3749,13 @@
         <f t="shared" ref="F19:F38" si="2">$D$17-D19</f>
         <v>8.6180000000001655</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27076172340637422</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25225656145602893</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.39381192692232631</v>
+        <v>0.36689692064303164</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3745,13 +3778,13 @@
         <f t="shared" si="2"/>
         <v>10.229000000000042</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26833088388403209</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24982572193368682</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.39027636959062867</v>
+        <v>0.36336136331133406</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3762,13 +3795,13 @@
         <f t="shared" si="2"/>
         <v>5.6840000000001965</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27518883896103108</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25668367701068578</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.40025098664374253</v>
+        <v>0.37333598036444787</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3788,13 +3821,13 @@
         <f t="shared" si="2"/>
         <v>21.441000000000031</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25141308579309368</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23290792384274839</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.36567011955773177</v>
+        <v>0.33875511327843716</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3814,13 +3847,13 @@
         <f t="shared" si="2"/>
         <v>25.439000000000078</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24538049956694555</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22687533761660028</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.35689596796733547</v>
+        <v>0.32998096168804086</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3840,13 +3873,13 @@
         <f t="shared" si="2"/>
         <v>30.035000000000082</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23844559053858724</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21994042858824198</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.3468094245182457</v>
+        <v>0.31989441823895109</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3863,13 +3896,13 @@
         <f t="shared" si="2"/>
         <v>31.80600000000004</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23577332685511854</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21726816490477327</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.34292272555211484</v>
+        <v>0.31600771927282023</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3880,13 +3913,13 @@
         <f t="shared" si="2"/>
         <v>18.533000000000129</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25580096992156737</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2372958079712221</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.37205211876355249</v>
+        <v>0.34513711248425782</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3906,13 +3939,13 @@
         <f t="shared" si="2"/>
         <v>31.520000000000209</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23620487254313188</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21769971059278659</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.34355039122366354</v>
+        <v>0.31663538494436894</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3932,13 +3965,13 @@
         <f t="shared" si="2"/>
         <v>47.104000000000042</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21269015924941248</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19418499729906719</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.30934919602988353</v>
+        <v>0.28243418975058893</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3961,13 +3994,13 @@
         <f t="shared" si="2"/>
         <v>56.784000000000106</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19808399750126002</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17957883555091475</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.28810512714668307</v>
+        <v>0.26119012086738846</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3982,13 +4015,13 @@
         <f t="shared" si="2"/>
         <v>57.141000000000076</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19754531984174659</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17904015789140132</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0.28732164237485436</v>
+        <v>0.26040663609555975</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4005,13 +4038,13 @@
         <f t="shared" si="2"/>
         <v>62.013000000000147</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19019395413544501</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17168879218509975</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.27662937960636741</v>
+        <v>0.24971437332707283</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -4022,13 +4055,13 @@
         <f t="shared" si="2"/>
         <v>40.573000000000093</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2225447917263941</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20403962977604884</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0.32368235862039807</v>
+        <v>0.29676735234110346</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4048,13 +4081,13 @@
         <f t="shared" si="2"/>
         <v>46.336000000000126</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21384899522281947</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1953438332724742</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>0.31103467587516209</v>
+        <v>0.28411966959586749</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4074,13 +4107,13 @@
         <f t="shared" si="2"/>
         <v>62.711000000000126</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18914074123253075</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17063557928218548</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0.27509752422615324</v>
+        <v>0.24818251794685861</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4103,13 +4136,13 @@
         <f t="shared" si="2"/>
         <v>74.583000000000084</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17122706847694563</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15272190652660034</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>0.24904281495122002</v>
+        <v>0.22212780867192539</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -4120,13 +4153,13 @@
         <f t="shared" si="2"/>
         <v>57.325000000000045</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19726768205645118</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17876252010610591</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>0.2869178294952564</v>
+        <v>0.2600028232159618</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4146,13 +4179,13 @@
         <f t="shared" si="2"/>
         <v>72.369000000000142</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17456777530653328</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15606261335618798</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.25390173731768739</v>
+        <v>0.22698673103839279</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4170,13 +4203,13 @@
         <f t="shared" si="2"/>
         <v>72.369000000000142</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17456777530653328</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15606261335618798</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>0.25390173731768739</v>
+        <v>0.22698673103839279</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4188,13 +4221,13 @@
         <f>$D$17-D39</f>
         <v>65.947000000000116</v>
       </c>
-      <c r="G39" s="5">
-        <f>(D39-$B$7)/($B$7-$B$5)</f>
-        <v>0.18425793757374762</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16575277562340232</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0.26799568466974455</v>
+        <v>0.24108067839044992</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4214,13 +4247,13 @@
         <f>$D$17-D40</f>
         <v>113.79300000000012</v>
       </c>
-      <c r="G40" s="5">
-        <f>(D40-$B$7)/($B$7-$B$5)</f>
-        <v>0.1120630599908863</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>9.3557898040541015E-2</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>0.1629911681629673</v>
+        <v>0.13607616188367272</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -4237,13 +4270,13 @@
         <f>$D$17-D41</f>
         <v>112.95200000000011</v>
       </c>
-      <c r="G41" s="5">
-        <f>(D41-$B$7)/($B$7-$B$5)</f>
-        <v>0.11333204573780739</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>9.4826883787462124E-2</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>0.16483685637895612</v>
+        <v>0.13792185009966151</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -4260,13 +4293,13 @@
         <f>$D$17-D42</f>
         <v>115.44600000000014</v>
       </c>
-      <c r="G42" s="5">
-        <f>(D42-$B$7)/($B$7-$B$5)</f>
-        <v>0.10956884662624826</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>9.1063684675902992E-2</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>0.15936343615223067</v>
+        <v>0.13244842987293609</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -4378,7 +4411,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H17"/>
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4467,6 +4500,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.3712991126260878</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>11.354000000000042</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4519,13 +4559,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.28369565390413232</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.26562233870672497</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.38903159845461432</v>
+        <f>G17*$B$13</f>
+        <v>0.3642476773621981</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4545,13 +4585,13 @@
         <f>$D$17-D18</f>
         <v>5.2789999999999964</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G37" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.27529253333630482</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G52" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25721921813889748</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H52" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.37750840667666252</v>
+        <f t="shared" ref="H18:H52" si="1">G18*$B$13</f>
+        <v>0.35272448558424624</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4571,13 +4611,13 @@
         <f t="shared" ref="F19:F37" si="2">$D$17-D19</f>
         <v>9.1349999999999909</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26915454642409747</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25108123122669013</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.36909139067064201</v>
+        <v>0.34430746957822572</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4600,13 +4640,13 @@
         <f t="shared" si="2"/>
         <v>12.924000000000092</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26312321021809271</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24504989502068539</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.36082062468339809</v>
+        <v>0.33603670359098187</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4617,13 +4657,13 @@
         <f t="shared" si="2"/>
         <v>0.49400000000002819</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.28290930392108493</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26483598872367758</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.38795327742064795</v>
+        <v>0.36316935632823166</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4646,13 +4686,13 @@
         <f t="shared" si="2"/>
         <v>14.419000000000096</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26074346684834426</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24267015165093692</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.35755728471218423</v>
+        <v>0.33277336361976795</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4672,13 +4712,13 @@
         <f t="shared" si="2"/>
         <v>20.290000000000077</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25139799974212818</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23332468454472083</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.34474185396235379</v>
+        <v>0.31995793286993757</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4698,13 +4738,13 @@
         <f t="shared" si="2"/>
         <v>23.745000000000005</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24589832526555244</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2278250100681451</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.33720015523289315</v>
+        <v>0.31241623414047692</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -4721,13 +4761,13 @@
         <f t="shared" si="2"/>
         <v>24.73700000000008</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24431925809311722</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22624594289570987</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.33503478182055574</v>
+        <v>0.31025086072813951</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -4738,13 +4778,13 @@
         <f t="shared" si="2"/>
         <v>0.84400000000005093</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.28235217336629431</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26427885816888697</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.38718928478524667</v>
+        <v>0.36240536369283044</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4764,13 +4804,13 @@
         <f t="shared" si="2"/>
         <v>8.6920000000000073</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26985971452630386</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25178639932889652</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.37005838706344985</v>
+        <v>0.34527446597103356</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4790,13 +4830,13 @@
         <f t="shared" si="2"/>
         <v>16.074000000000069</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2581090352249773</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24003572002756995</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.35394469096478703</v>
+        <v>0.32916076987237075</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4816,13 +4856,13 @@
         <f t="shared" si="2"/>
         <v>20.55600000000004</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25097458052048738</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23290126532308</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.34416121955944895</v>
+        <v>0.31937729846703267</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -4839,13 +4879,13 @@
         <f t="shared" si="2"/>
         <v>22.972000000000094</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24712878789084697</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22905547269343962</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0.3388874875390791</v>
+        <v>0.31410356644666282</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -4856,13 +4896,13 @@
         <f t="shared" si="2"/>
         <v>1.4130000000000109</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.28144643826436333</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26337312306695598</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.38594725104369448</v>
+        <v>0.36116332995127814</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4882,13 +4922,13 @@
         <f t="shared" si="2"/>
         <v>5.0630000000001019</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27563636247868972</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25756304728128238</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0.37797989927450992</v>
+        <v>0.35319597818209364</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4908,13 +4948,13 @@
         <f t="shared" si="2"/>
         <v>13.412000000000035</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26234641104455619</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24427309584714885</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>0.35975540066603878</v>
+        <v>0.3349714795736225</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4937,13 +4977,13 @@
         <f t="shared" si="2"/>
         <v>18.855000000000018</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25368223501676973</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23560891981936238</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0.34787422376749899</v>
+        <v>0.32309030267508271</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4954,13 +4994,13 @@
         <f t="shared" si="2"/>
         <v>0.80900000000008276</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.28240788642177328</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26433457122436599</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>0.3872656840487867</v>
+        <v>0.36248176295637047</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4980,13 +5020,13 @@
         <f t="shared" si="2"/>
         <v>11.276000000000067</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26574649923036398</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24767318403295663</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>0.36441793857808741</v>
+        <v>0.33963401748567118</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5004,13 +5044,13 @@
         <f t="shared" si="2"/>
         <v>11.276000000000067</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26574649923036398</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24767318403295663</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.36441793857808741</v>
+        <v>0.33963401748567118</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5022,13 +5062,13 @@
         <f t="shared" ref="F38:F52" si="3">$D$17-D38</f>
         <v>0.72400000000004638</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" ref="G38:G52" si="4">(D38-$B$7)/($B$7-$B$5)</f>
-        <v>0.2825431895565082</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26446987435910091</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>0.38745122511738422</v>
+        <v>0.362667304024968</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5048,13 +5088,13 @@
         <f t="shared" si="3"/>
         <v>28.286000000000058</v>
       </c>
-      <c r="G39" s="5">
-        <f t="shared" si="4"/>
-        <v>0.23866995426754051</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22059663907013316</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0.32728789649758727</v>
+        <v>0.30250397540517099</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -5077,13 +5117,13 @@
         <f t="shared" si="3"/>
         <v>39.901000000000067</v>
       </c>
-      <c r="G40" s="5">
-        <f t="shared" si="4"/>
-        <v>0.22018117885641794</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20210786365901059</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>0.30193425518277184</v>
+        <v>0.27715033409035555</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -5094,13 +5134,13 @@
         <f t="shared" si="3"/>
         <v>0.66100000000005821</v>
       </c>
-      <c r="G41" s="5">
-        <f t="shared" si="4"/>
-        <v>0.2826434730563705</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26457015785896315</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>0.38758874379175645</v>
+        <v>0.36280482269934017</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -5120,13 +5160,13 @@
         <f t="shared" si="3"/>
         <v>11.25</v>
       </c>
-      <c r="G42" s="5">
-        <f t="shared" si="4"/>
-        <v>0.26578788607157711</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24771457087416976</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>0.36447469231671736</v>
+        <v>0.33969077122430114</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5149,13 +5189,13 @@
         <f t="shared" si="3"/>
         <v>22.540000000000077</v>
       </c>
-      <c r="G43" s="5">
-        <f t="shared" si="4"/>
-        <v>0.24781644617561713</v>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22974313097820978</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="1"/>
-        <v>0.3398304727347744</v>
+        <v>0.31504655164235812</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -5166,13 +5206,13 @@
         <f t="shared" si="3"/>
         <v>-0.50799999999992451</v>
       </c>
-      <c r="G44" s="5">
-        <f t="shared" si="4"/>
-        <v>0.28450428910937109</v>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2664309739119638</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="1"/>
-        <v>0.39014047919399653</v>
+        <v>0.3653565581015803</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -5192,13 +5232,13 @@
         <f t="shared" si="3"/>
         <v>15.800000000000068</v>
       </c>
-      <c r="G45" s="5">
-        <f t="shared" si="4"/>
-        <v>0.25854518885929911</v>
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24047187366189177</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="1"/>
-        <v>0.35454278805650113</v>
+        <v>0.32975886696408491</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5215,13 +5255,13 @@
         <f t="shared" si="3"/>
         <v>19.503000000000043</v>
       </c>
-      <c r="G46" s="5">
-        <f t="shared" si="4"/>
-        <v>0.25265074758961453</v>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23457743239220719</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="1"/>
-        <v>0.34645974597395607</v>
+        <v>0.32167582488153984</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -5232,13 +5272,13 @@
         <f t="shared" si="3"/>
         <v>-3.2999999999901775E-2</v>
       </c>
-      <c r="G47" s="5">
-        <f t="shared" si="4"/>
-        <v>0.28374818335644098</v>
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26567486815903363</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="1"/>
-        <v>0.38910363204595194</v>
+        <v>0.36431971095353571</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -5261,13 +5301,13 @@
         <f t="shared" si="3"/>
         <v>70.575000000000045</v>
       </c>
-      <c r="G48" s="5">
-        <f t="shared" si="4"/>
-        <v>0.17135425703456922</v>
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15328094183716187</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="1"/>
-        <v>0.23497794061620733</v>
+        <v>0.21019401952379105</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -5278,13 +5318,13 @@
         <f t="shared" si="3"/>
         <v>-0.4699999999999136</v>
       </c>
-      <c r="G49" s="5">
-        <f t="shared" si="4"/>
-        <v>0.28444380064913671</v>
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26637048545172937</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="1"/>
-        <v>0.39005753142215294</v>
+        <v>0.36527361032973671</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -5304,13 +5344,13 @@
         <f t="shared" si="3"/>
         <v>48.711000000000013</v>
       </c>
-      <c r="G50" s="5">
-        <f t="shared" si="4"/>
-        <v>0.20615740689154591</v>
+      <c r="G50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18808409169413856</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="1"/>
-        <v>0.28270346913167221</v>
+        <v>0.25791954803925593</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5327,13 +5367,13 @@
         <f t="shared" si="3"/>
         <v>50.387000000000057</v>
       </c>
-      <c r="G51" s="5">
-        <f t="shared" si="4"/>
-        <v>0.20348954743489137</v>
+      <c r="G51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18541623223748405</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="1"/>
-        <v>0.27904503582615076</v>
+        <v>0.25426111473373447</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -5350,13 +5390,13 @@
         <f t="shared" si="3"/>
         <v>51.658999999999992</v>
       </c>
-      <c r="G52" s="5">
-        <f t="shared" si="4"/>
-        <v>0.2014647758186239</v>
+      <c r="G52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18339146062121656</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="1"/>
-        <v>0.27626846830549268</v>
+        <v>0.25148454721307639</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -5467,8 +5507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5557,6 +5597,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4104898581780967</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>10.397000000000048</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5609,13 +5656,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.26320563747570819</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.24702854680029082</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.37124888227478708</v>
+        <f>G17*$B$13</f>
+        <v>0.34843125994228352</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5635,13 +5682,13 @@
         <f>$D$17-D18</f>
         <v>5.2920000000001437</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G38" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.25497161190541767</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G42" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.23879452123000031</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H42" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.35963487271591321</v>
+        <f t="shared" ref="H18:H42" si="1">G18*$B$13</f>
+        <v>0.33681725038340965</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5664,13 +5711,13 @@
         <f t="shared" ref="F19:F38" si="2">$D$17-D19</f>
         <v>9.9770000000000891</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24768204089317095</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23150495021775361</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.34935300673267022</v>
+        <v>0.32653538440016661</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5693,13 +5740,13 @@
         <f t="shared" si="2"/>
         <v>11.067000000000121</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24598606812831519</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22980897745289783</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.34696085434809487</v>
+        <v>0.32414323201559125</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -5710,13 +5757,13 @@
         <f t="shared" si="2"/>
         <v>0.65500000000020009</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26218649787847803</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24600940720306069</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.3698113962088263</v>
+        <v>0.34699377387632274</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5736,13 +5783,13 @@
         <f t="shared" si="2"/>
         <v>21.110000000000127</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23035977961689691</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21418268894147957</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.32492013288177451</v>
+        <v>0.3021025105492709</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5762,13 +5809,13 @@
         <f t="shared" si="2"/>
         <v>28.081000000000131</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21951333361340228</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20333624293798494</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.30962133079656895</v>
+        <v>0.28680370846406539</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5788,13 +5835,13 @@
         <f t="shared" si="2"/>
         <v>35.98700000000008</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20721208528409113</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19103499460867379</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.29227054478514536</v>
+        <v>0.26945292245264174</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -5811,13 +5858,13 @@
         <f t="shared" si="2"/>
         <v>39.536000000000058</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20169006019925362</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18551296952383628</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.284481784406377</v>
+        <v>0.26166416207387339</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -5828,13 +5875,13 @@
         <f t="shared" si="2"/>
         <v>1.568000000000211</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26076592619562183</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2445888355202045</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.36780769425734261</v>
+        <v>0.34499007192483905</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5854,13 +5901,13 @@
         <f t="shared" si="2"/>
         <v>24.472000000000094</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22512871499722276</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20895162432180542</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.31754176928824984</v>
+        <v>0.29472414695574628</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5880,13 +5927,13 @@
         <f t="shared" si="2"/>
         <v>49.510000000000105</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18617113143166561</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16999404075624827</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.26259249276990582</v>
+        <v>0.23977487043740223</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5909,13 +5956,13 @@
         <f t="shared" si="2"/>
         <v>64.883000000000152</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1622516916939345</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14607460101851716</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.22885436560653391</v>
+        <v>0.20603674327403032</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5930,13 +5977,13 @@
         <f t="shared" si="2"/>
         <v>66.764000000000124</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15932497172082116</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1431478810454038</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0.22472625676673028</v>
+        <v>0.20190863443422666</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -5953,13 +6000,13 @@
         <f t="shared" si="2"/>
         <v>71.86200000000008</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15139279818390891</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13521570750849157</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.21353800643960688</v>
+        <v>0.19072038410710329</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -5970,13 +6017,13 @@
         <f t="shared" si="2"/>
         <v>2.0430000000001201</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26002685549534083</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24384976481992346</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0.36676524253011966</v>
+        <v>0.34394762019761604</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5996,13 +6043,13 @@
         <f t="shared" si="2"/>
         <v>10.613000000000056</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24669246412395243</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23051537344853509</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>0.34795721873579882</v>
+        <v>0.32513959640329526</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6022,13 +6069,13 @@
         <f t="shared" si="2"/>
         <v>35.436000000000149</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20806940729641715</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19189231662099981</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0.29347978878872405</v>
+        <v>0.27066216645622043</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6051,13 +6098,13 @@
         <f t="shared" si="2"/>
         <v>57.785000000000082</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17329574186360969</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15711865118819232</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>0.24443188636407084</v>
+        <v>0.22161426403156723</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -6068,13 +6115,13 @@
         <f t="shared" si="2"/>
         <v>1.7840000000001055</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26042984351928361</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24425275284386627</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>0.36733365305085824</v>
+        <v>0.34451603071835463</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6094,13 +6141,13 @@
         <f t="shared" si="2"/>
         <v>35.614000000000146</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20779245027610127</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19161535960068393</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.29308914372041728</v>
+        <v>0.27027152138791366</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6118,13 +6165,13 @@
         <f t="shared" si="2"/>
         <v>35.614000000000146</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20779245027610127</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19161535960068393</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>0.29308914372041728</v>
+        <v>0.27027152138791366</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -6136,13 +6183,13 @@
         <f>$D$17-D39</f>
         <v>3.3300000000001546</v>
       </c>
-      <c r="G39" s="5">
-        <f>(D39-$B$7)/($B$7-$B$5)</f>
-        <v>0.25802436288215791</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24184727220674057</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0.36394074700814866</v>
+        <v>0.34112312467564504</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6162,13 +6209,13 @@
         <f>$D$17-D40</f>
         <v>102.00300000000004</v>
       </c>
-      <c r="G40" s="5">
-        <f>(D40-$B$7)/($B$7-$B$5)</f>
-        <v>0.10449526138985764</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>8.8318170714440286E-2</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>0.14738950641806342</v>
+        <v>0.12457188408555982</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -6185,13 +6232,13 @@
         <f>$D$17-D41</f>
         <v>108.56400000000008</v>
       </c>
-      <c r="G41" s="5">
-        <f>(D41-$B$7)/($B$7-$B$5)</f>
-        <v>9.42867500960793E-2</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>7.8109659420661962E-2</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>0.13299050477109253</v>
+        <v>0.11017288243858893</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -6205,13 +6252,13 @@
         <f>$D$17-D42</f>
         <v>109.89700000000005</v>
       </c>
-      <c r="G42" s="5">
-        <f>(D42-$B$7)/($B$7-$B$5)</f>
-        <v>9.2212684320342964E-2</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>7.6035593644925625E-2</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>0.13006505602922214</v>
+        <v>0.10724743369671853</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -6322,8 +6369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H17"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6412,6 +6459,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.4207250704643457</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>11.256000000000085</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6464,13 +6518,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.25821141808862719</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.24091742950118455</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.36684743515866347</v>
+        <f>G17*$B$13</f>
+        <v>0.34227743200415944</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6490,13 +6544,13 @@
         <f>$D$17-D18</f>
         <v>4.1990000000000691</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G37" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.25175997369642106</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G50" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.23446598510897843</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" ref="H18:H50" si="1">(D18-$B$7)/$D$11</f>
-        <v>0.35768170636994961</v>
+        <f t="shared" ref="H18:H50" si="1">G18*$B$13</f>
+        <v>0.33311170321544559</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6516,13 +6570,13 @@
         <f t="shared" ref="F19:F37" si="2">$D$17-D19</f>
         <v>7.9010000000000673</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2460721320341332</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22877814344669056</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>0.34960084712350564</v>
+        <v>0.32503084396900161</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6545,13 +6599,13 @@
         <f t="shared" si="2"/>
         <v>11.924999999999955</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23988956184260274</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22259557325516013</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>0.34081711465249281</v>
+        <v>0.31624711149798879</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -6562,13 +6616,13 @@
         <f t="shared" si="2"/>
         <v>6.4610000000000127</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.24828458259969097</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23099059401224833</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>0.35274413110915659</v>
+        <v>0.32817412795465256</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6591,13 +6645,13 @@
         <f t="shared" si="2"/>
         <v>22.450000000000045</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2237186992019814</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20642471061453876</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>0.31784276468792677</v>
+        <v>0.29327276153342274</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6617,13 +6671,13 @@
         <f t="shared" si="2"/>
         <v>29.483000000000061</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21291302918283753</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19561904059539489</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>0.30249087838856414</v>
+        <v>0.27792087523406012</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6643,13 +6697,13 @@
         <f t="shared" si="2"/>
         <v>34.854000000000042</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.2046608958581082</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18736690727066557</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>0.29076686568930687</v>
+        <v>0.26619686253480285</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -6666,13 +6720,13 @@
         <f t="shared" si="2"/>
         <v>36.853000000000065</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20158958427439302</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18429559568695039</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>0.28640337632311519</v>
+        <v>0.26183337316861116</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -6683,13 +6737,13 @@
         <f t="shared" si="2"/>
         <v>22.329000000000065</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22390460650644836</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20661061791900576</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>0.31810688785616548</v>
+        <v>0.29353688470166145</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6709,13 +6763,13 @@
         <f t="shared" si="2"/>
         <v>35.296000000000049</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20398179644840231</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18668780786095968</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>0.28980205213260019</v>
+        <v>0.26523204897809616</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6735,13 +6789,13 @@
         <f t="shared" si="2"/>
         <v>50.926000000000045</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17996748926807837</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16267350068063574</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.255684323871682</v>
+        <v>0.231114320717178</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6761,13 +6815,13 @@
         <f t="shared" si="2"/>
         <v>60.743000000000052</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.16488441482218966</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14759042623474705</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.23425542186672782</v>
+        <v>0.20968541871222382</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -6784,13 +6838,13 @@
         <f t="shared" si="2"/>
         <v>67.590000000000032</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15436451966776371</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13707053108032108</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>0.21930954308217848</v>
+        <v>0.19473953992767445</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -6801,13 +6855,13 @@
         <f t="shared" si="2"/>
         <v>45.47300000000007</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18834560936112416</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17105162077368152</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.26758732913123323</v>
+        <v>0.24301732597672923</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6827,13 +6881,13 @@
         <f t="shared" si="2"/>
         <v>50.961999999999989</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17991217800393952</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16261818941649689</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0.25560574177204087</v>
+        <v>0.23103573861753687</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6853,13 +6907,13 @@
         <f t="shared" si="2"/>
         <v>68.199000000000069</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.15342883744941324</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13613484886197061</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>0.21798019589658027</v>
+        <v>0.19341019274207624</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6882,13 +6936,13 @@
         <f t="shared" si="2"/>
         <v>80.163000000000011</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.13504706066723829</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11775307207979567</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0.1918647447824649</v>
+        <v>0.16729474162796087</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -6899,13 +6953,13 @@
         <f t="shared" si="2"/>
         <v>62.699000000000069</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.16187916947064046</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14458518088319783</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>0.22998579445288544</v>
+        <v>0.20541579129838142</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6925,13 +6979,13 @@
         <f t="shared" si="2"/>
         <v>82.415000000000077</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.13158703381054659</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11429304522310398</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>0.18694899788268307</v>
+        <v>0.16237899472817904</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6949,13 +7003,13 @@
         <f t="shared" si="2"/>
         <v>82.415000000000077</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.13158703381054659</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11429304522310398</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.18694899788268307</v>
+        <v>0.16237899472817904</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -6967,13 +7021,13 @@
         <f t="shared" ref="F38:F50" si="3">$D$17-D38</f>
         <v>71.196000000000026</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" ref="G38:G50" si="4">(D38-$B$7)/($B$7-$B$5)</f>
-        <v>0.14882417470984638</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13153018612240375</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>0.2114382361014446</v>
+        <v>0.18686823294694058</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6993,13 +7047,13 @@
         <f t="shared" si="3"/>
         <v>124.17700000000002</v>
       </c>
-      <c r="G39" s="5">
-        <f t="shared" si="4"/>
-        <v>6.7422894561366367E-2</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>5.0128905973923742E-2</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>9.578939662660739E-2</v>
+        <v>7.1219393472103362E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -7022,13 +7076,13 @@
         <f t="shared" si="3"/>
         <v>137.62900000000002</v>
       </c>
-      <c r="G40" s="5">
-        <f t="shared" si="4"/>
-        <v>4.6754918861448419E-2</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>2.946093027400579E-2</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>6.642588539398607E-2</v>
+        <v>4.1855882239482049E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -7039,13 +7093,13 @@
         <f t="shared" si="3"/>
         <v>104.23800000000006</v>
       </c>
-      <c r="G41" s="5">
-        <f t="shared" si="4"/>
-        <v>9.8057652774320839E-2</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>8.0763664186878206E-2</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>0.13931296564736531</v>
+        <v>0.1147429624928613</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -7065,13 +7119,13 @@
         <f t="shared" si="3"/>
         <v>117.28000000000009</v>
       </c>
-      <c r="G42" s="5">
-        <f t="shared" si="4"/>
-        <v>7.8019610915985221E-2</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>6.0725622328542596E-2</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>0.11084441721621395</v>
+        <v>8.6274414061709923E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -7094,13 +7148,13 @@
         <f t="shared" si="3"/>
         <v>131.12600000000009</v>
       </c>
-      <c r="G43" s="5">
-        <f t="shared" si="4"/>
-        <v>5.6746284158546621E-2</v>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9452295571103989E-2</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="1"/>
-        <v>8.0620868559740932E-2</v>
+        <v>5.6050865405236912E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -7111,13 +7165,13 @@
         <f t="shared" si="3"/>
         <v>117.13100000000009</v>
       </c>
-      <c r="G44" s="5">
-        <f t="shared" si="4"/>
-        <v>7.8248538092560285E-2</v>
+      <c r="G44" s="8">
+        <f t="shared" si="0"/>
+        <v>6.095454950511766E-2</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="1"/>
-        <v>0.11116965979528476</v>
+        <v>8.6599656640780731E-2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -7137,13 +7191,13 @@
         <f t="shared" si="3"/>
         <v>133.12300000000005</v>
       </c>
-      <c r="G45" s="5">
-        <f t="shared" si="4"/>
-        <v>5.3678045422839271E-2</v>
+      <c r="G45" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6384056835396639E-2</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="1"/>
-        <v>7.6261744865751671E-2</v>
+        <v>5.169174171124765E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -7160,13 +7214,13 @@
         <f t="shared" si="3"/>
         <v>135.85200000000009</v>
       </c>
-      <c r="G46" s="5">
-        <f t="shared" si="4"/>
-        <v>4.9485144316306642E-2</v>
+      <c r="G46" s="8">
+        <f t="shared" si="0"/>
+        <v>3.219115572886401E-2</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="1"/>
-        <v>7.0304785145723067E-2</v>
+        <v>4.5734781991219046E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -7177,13 +7231,13 @@
         <f t="shared" si="3"/>
         <v>126.92500000000007</v>
       </c>
-      <c r="G47" s="5">
-        <f t="shared" si="4"/>
-        <v>6.3200801398760401E-2</v>
+      <c r="G47" s="8">
+        <f t="shared" si="0"/>
+        <v>4.5906812811317768E-2</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="1"/>
-        <v>8.9790963020656991E-2</v>
+        <v>6.5220959866152964E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -7206,13 +7260,13 @@
         <f t="shared" si="3"/>
         <v>146.53100000000006</v>
       </c>
-      <c r="G48" s="5">
-        <f t="shared" si="4"/>
-        <v>3.3077672379091108E-2</v>
+      <c r="G48" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5783683791648479E-2</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="1"/>
-        <v>4.6994278421580757E-2</v>
+        <v>2.2424275267076736E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -7223,13 +7277,13 @@
         <f t="shared" si="3"/>
         <v>137.39300000000003</v>
       </c>
-      <c r="G49" s="5">
-        <f t="shared" si="4"/>
-        <v>4.7117514926359245E-2</v>
+      <c r="G49" s="8">
+        <f t="shared" si="0"/>
+        <v>2.9823526338916613E-2</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="1"/>
-        <v>6.6941034713856595E-2</v>
+        <v>4.2371031559352575E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -7252,13 +7306,13 @@
         <f t="shared" si="3"/>
         <v>145.95600000000002</v>
       </c>
-      <c r="G50" s="5">
-        <f t="shared" si="4"/>
-        <v>3.396111618131039E-2</v>
+      <c r="G50" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6667127593867757E-2</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="1"/>
-        <v>4.8249409179740035E-2</v>
+        <v>2.3679406025236011E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -7360,8 +7414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7450,6 +7504,13 @@
         <f>(B7-B5)/D11</f>
         <v>1.3763632805816333</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1">
+        <f>D17-B9</f>
+        <v>13.182999999999993</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7505,13 +7566,13 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="5">
-        <f>(D17-$B$7)/($B$7-$B$5)</f>
-        <v>0.27778406726312244</v>
+      <c r="G17" s="8">
+        <f>(D17-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.25676354422952119</v>
       </c>
       <c r="H17" s="7">
-        <f>(D17-$B$7)/$D$11</f>
-        <v>0.38233179011158031</v>
+        <f>G17*$B$13</f>
+        <v>0.3533999140695111</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7531,13 +7592,13 @@
         <f>$D$17-D18</f>
         <v>6.5889999999999418</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G39" si="0">(D18-$B$7)/($B$7-$B$5)</f>
-        <v>0.26727779203985025</v>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G43" si="0">(D18-$D$13-$B$7)/($B$7-$B$5)</f>
+        <v>0.246257269006249</v>
       </c>
       <c r="H18" s="7">
-        <f>(D18-$B$7)/$D$11</f>
-        <v>0.36787133867858385</v>
+        <f t="shared" ref="H18:H43" si="1">G18*$B$13</f>
+        <v>0.33893946263651464</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7557,16 +7618,16 @@
         <v>35</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:F39" si="1">$D$17-D19</f>
+        <f t="shared" ref="F19:F39" si="2">$D$17-D19</f>
         <v>11.038000000000011</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26018378407683018</v>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23916326104322894</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" ref="H19:H43" si="2">(D19-$B$7)/$D$11</f>
-        <v>0.35810740660612933</v>
+        <f t="shared" si="1"/>
+        <v>0.32917553056406013</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7586,16 +7647,16 @@
         <v>22</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.774999999999977</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25741410733334502</v>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2363935842997438</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="2"/>
-        <v>0.35429532523731544</v>
+        <f t="shared" si="1"/>
+        <v>0.32536344919524623</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -7603,16 +7664,16 @@
         <v>1015.058</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4189999999999827</v>
       </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.26754885999977679</v>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24652833696617552</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="2"/>
-        <v>0.36824442666516888</v>
+        <f t="shared" si="1"/>
+        <v>0.33931255062309967</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7632,16 +7693,16 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.427000000000021</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23245672081116284</v>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21143619777756159</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="2"/>
-        <v>0.31994489484890093</v>
+        <f t="shared" si="1"/>
+        <v>0.29101301880683172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7658,16 +7719,16 @@
         <v>987.49099999999999</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.98599999999999</v>
       </c>
-      <c r="G23" s="5">
-        <f t="shared" si="0"/>
-        <v>0.22359279852156344</v>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20257227548796219</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="2"/>
-        <v>0.30774491768756723</v>
+        <f t="shared" si="1"/>
+        <v>0.27881304164549803</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7684,16 +7745,16 @@
         <v>979.49800000000005</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.978999999999928</v>
       </c>
-      <c r="G24" s="5">
-        <f t="shared" si="0"/>
-        <v>0.21084782085277989</v>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18982729781917865</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="2"/>
-        <v>0.29020319841242065</v>
+        <f t="shared" si="1"/>
+        <v>0.26127132237035144</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -7707,16 +7768,16 @@
         <v>22</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.26299999999992</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20561142567396276</v>
+      <c r="G25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18459090264036151</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="2"/>
-        <v>0.28299601636568206</v>
+        <f t="shared" si="1"/>
+        <v>0.25406414032361285</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -7724,16 +7785,16 @@
         <v>995.04200000000003</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.434999999999945</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>0.23563299949453806</v>
+      <c r="G26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21461247646093679</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="2"/>
-        <v>0.32431660819759273</v>
+        <f t="shared" si="1"/>
+        <v>0.29538473215552352</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7750,16 +7811,16 @@
         <v>974.34299999999996</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.134000000000015</v>
       </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20262808359735879</v>
+      <c r="G27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18160756056375754</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="2"/>
-        <v>0.27888985387803022</v>
+        <f t="shared" si="1"/>
+        <v>0.24995797783596096</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7776,16 +7837,16 @@
         <v>951.96600000000001</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69.510999999999967</v>
       </c>
-      <c r="G28" s="5">
-        <f t="shared" si="0"/>
-        <v>0.16694756748396317</v>
+      <c r="G28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14592704445036192</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="2"/>
-        <v>0.22978050166735117</v>
+        <f t="shared" si="1"/>
+        <v>0.20084862562528194</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7802,16 +7863,16 @@
         <v>937.83</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83.646999999999935</v>
       </c>
-      <c r="G29" s="5">
-        <f t="shared" si="0"/>
-        <v>0.14440746935736173</v>
+      <c r="G29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12338694632376047</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="2"/>
-        <v>0.19875713826519009</v>
+        <f t="shared" si="1"/>
+        <v>0.16982526222312086</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7826,16 +7887,16 @@
         <v>35</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.427000000000021</v>
       </c>
-      <c r="G30" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1351911587198576</v>
+      <c r="G30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11417063568625634</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="2"/>
-        <v>0.18607214672129549</v>
+        <f t="shared" si="1"/>
+        <v>0.15714027067922626</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7847,16 +7908,16 @@
         <v>931.54200000000003</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.934999999999945</v>
       </c>
-      <c r="G31" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1343811438749006</v>
+      <c r="G31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11336062084129936</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="2"/>
-        <v>0.18495727203197065</v>
+        <f t="shared" si="1"/>
+        <v>0.15602539598990145</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -7870,16 +7931,16 @@
         <v>22</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90.211000000000013</v>
       </c>
-      <c r="G32" s="5">
-        <f t="shared" si="0"/>
-        <v>0.13394105706937262</v>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11292053403577137</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="2"/>
-        <v>0.18435155271257347</v>
+        <f t="shared" si="1"/>
+        <v>0.15541967667050427</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -7887,16 +7948,16 @@
         <v>963.06899999999996</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.408000000000015</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" si="0"/>
-        <v>0.18465149430199199</v>
+      <c r="G33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16363097126839074</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="2"/>
-        <v>0.25414753646179045</v>
+        <f t="shared" si="1"/>
+        <v>0.22521566041972124</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7913,16 +7974,16 @@
         <v>955.42200000000003</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.05499999999995</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="0"/>
-        <v>0.17245821965752961</v>
+      <c r="G34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15143769662392836</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" si="2"/>
-        <v>0.23736516097110538</v>
+        <f t="shared" si="1"/>
+        <v>0.20843328492903618</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7939,16 +8000,16 @@
         <v>932.22400000000005</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.252999999999929</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="0"/>
-        <v>0.13546860474942965</v>
+      <c r="G35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1144480817158284</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="2"/>
-        <v>0.18645401324874164</v>
+        <f t="shared" si="1"/>
+        <v>0.15752213720667241</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7968,16 +8029,16 @@
         <v>22</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107.88400000000001</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="0"/>
-        <v>0.10576115085888677</v>
+      <c r="G36" s="8">
+        <f t="shared" si="0"/>
+        <v>8.4740627825285506E-2</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="2"/>
-        <v>0.1455657645542264</v>
+        <f t="shared" si="1"/>
+        <v>0.1166338885121572</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -7985,16 +8046,16 @@
         <v>938.59</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82.886999999999944</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="0"/>
-        <v>0.14561930258997471</v>
+      <c r="G37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12459877955637345</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="2"/>
-        <v>0.2004250610287471</v>
+        <f t="shared" si="1"/>
+        <v>0.1714931849866779</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8011,16 +8072,16 @@
         <v>909.78499999999997</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111.69200000000001</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" si="0"/>
-        <v>9.9689228556531187E-2</v>
+      <c r="G38" s="8">
+        <f t="shared" si="0"/>
+        <v>7.8668705522929941E-2</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="2"/>
-        <v>0.13720859365471952</v>
+        <f t="shared" si="1"/>
+        <v>0.1082767176126503</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8035,16 +8096,16 @@
         <v>22</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111.69200000000001</v>
       </c>
-      <c r="G39" s="5">
-        <f t="shared" si="0"/>
-        <v>9.9689228556531187E-2</v>
+      <c r="G39" s="8">
+        <f t="shared" si="0"/>
+        <v>7.8668705522929941E-2</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="2"/>
-        <v>0.13720859365471952</v>
+        <f t="shared" si="1"/>
+        <v>0.1082767176126503</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -8056,13 +8117,13 @@
         <f>$D$17-D40</f>
         <v>94.125</v>
       </c>
-      <c r="G40" s="5">
-        <f>(D40-$B$7)/($B$7-$B$5)</f>
-        <v>0.12770011592141578</v>
+      <c r="G40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10667959288781453</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="2"/>
-        <v>0.17576175048025469</v>
+        <f t="shared" si="1"/>
+        <v>0.14682987443818549</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8082,13 +8143,13 @@
         <f>$D$17-D41</f>
         <v>141.48799999999994</v>
       </c>
-      <c r="G41" s="5">
-        <f>(D41-$B$7)/($B$7-$B$5)</f>
-        <v>5.2178987768457009E-2</v>
+      <c r="G41" s="8">
+        <f t="shared" si="0"/>
+        <v>3.1158464734855756E-2</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="2"/>
-        <v>7.1817242782422408E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.2885366740353197E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -8105,13 +8166,13 @@
         <f>$D$17-D42</f>
         <v>142.88099999999997</v>
       </c>
-      <c r="G42" s="5">
-        <f>(D42-$B$7)/($B$7-$B$5)</f>
-        <v>4.995782501447027E-2</v>
+      <c r="G42" s="8">
+        <f t="shared" si="0"/>
+        <v>2.893730198086902E-2</v>
       </c>
       <c r="H42" s="7">
-        <f>(D42-$B$7)/$D$11</f>
-        <v>6.876011592763949E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.9828239885570278E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -8128,13 +8189,13 @@
         <f>$D$17-D43</f>
         <v>143.04099999999994</v>
       </c>
-      <c r="G43" s="5">
-        <f>(D43-$B$7)/($B$7-$B$5)</f>
-        <v>4.9702702228657067E-2</v>
+      <c r="G43" s="8">
+        <f t="shared" si="0"/>
+        <v>2.868217919505581E-2</v>
       </c>
       <c r="H43" s="7">
-        <f t="shared" si="2"/>
-        <v>6.8408974293206498E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.9477098251137287E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
